--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Sema6d-Kdr.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Sema6d-Kdr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,7 +82,13 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>Kdr</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.2770233047136</v>
+        <v>30.92088766666667</v>
       </c>
       <c r="H2">
-        <v>20.2770233047136</v>
+        <v>92.76266300000002</v>
       </c>
       <c r="I2">
-        <v>0.3517085431918275</v>
+        <v>0.4394483058295039</v>
       </c>
       <c r="J2">
-        <v>0.3517085431918275</v>
+        <v>0.4394483058295039</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>127.890361207483</v>
+        <v>139.3946303333333</v>
       </c>
       <c r="N2">
-        <v>127.890361207483</v>
+        <v>418.183891</v>
       </c>
       <c r="O2">
-        <v>0.9283285166052262</v>
+        <v>0.9207771771472824</v>
       </c>
       <c r="P2">
-        <v>0.9283285166052262</v>
+        <v>0.9207771771472822</v>
       </c>
       <c r="Q2">
-        <v>2593.235834652373</v>
+        <v>4310.205705873526</v>
       </c>
       <c r="R2">
-        <v>2593.235834652373</v>
+        <v>38791.85135286173</v>
       </c>
       <c r="S2">
-        <v>0.3265010701786543</v>
+        <v>0.4046339705438462</v>
       </c>
       <c r="T2">
-        <v>0.3265010701786543</v>
+        <v>0.4046339705438461</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.2770233047136</v>
+        <v>30.92088766666667</v>
       </c>
       <c r="H3">
-        <v>20.2770233047136</v>
+        <v>92.76266300000002</v>
       </c>
       <c r="I3">
-        <v>0.3517085431918275</v>
+        <v>0.4394483058295039</v>
       </c>
       <c r="J3">
-        <v>0.3517085431918275</v>
+        <v>0.4394483058295039</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>3.50184202892109</v>
+        <v>0.050239</v>
       </c>
       <c r="N3">
-        <v>3.50184202892109</v>
+        <v>0.150717</v>
       </c>
       <c r="O3">
-        <v>0.02541911513425251</v>
+        <v>0.0003318558576616883</v>
       </c>
       <c r="P3">
-        <v>0.02541911513425251</v>
+        <v>0.0003318558576616882</v>
       </c>
       <c r="Q3">
-        <v>71.00693242985851</v>
+        <v>1.553434475485667</v>
       </c>
       <c r="R3">
-        <v>71.00693242985851</v>
+        <v>13.980910279371</v>
       </c>
       <c r="S3">
-        <v>0.008940119953093285</v>
+        <v>0.0001458334944290259</v>
       </c>
       <c r="T3">
-        <v>0.008940119953093285</v>
+        <v>0.0001458334944290259</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.2770233047136</v>
+        <v>30.92088766666667</v>
       </c>
       <c r="H4">
-        <v>20.2770233047136</v>
+        <v>92.76266300000002</v>
       </c>
       <c r="I4">
-        <v>0.3517085431918275</v>
+        <v>0.4394483058295039</v>
       </c>
       <c r="J4">
-        <v>0.3517085431918275</v>
+        <v>0.4394483058295039</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.14098823574429</v>
+        <v>4.220699666666667</v>
       </c>
       <c r="N4">
-        <v>5.14098823574429</v>
+        <v>12.662099</v>
       </c>
       <c r="O4">
-        <v>0.03731732350830338</v>
+        <v>0.02788001170035368</v>
       </c>
       <c r="P4">
-        <v>0.03731732350830338</v>
+        <v>0.02788001170035368</v>
       </c>
       <c r="Q4">
-        <v>104.2439382654454</v>
+        <v>130.5077802677375</v>
       </c>
       <c r="R4">
-        <v>104.2439382654454</v>
+        <v>1174.570022409637</v>
       </c>
       <c r="S4">
-        <v>0.01312482148692352</v>
+        <v>0.01225182390822717</v>
       </c>
       <c r="T4">
-        <v>0.01312482148692352</v>
+        <v>0.01225182390822717</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>20.2770233047136</v>
+        <v>30.92088766666667</v>
       </c>
       <c r="H5">
-        <v>20.2770233047136</v>
+        <v>92.76266300000002</v>
       </c>
       <c r="I5">
-        <v>0.3517085431918275</v>
+        <v>0.4394483058295039</v>
       </c>
       <c r="J5">
-        <v>0.3517085431918275</v>
+        <v>0.4394483058295039</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.806379720358944</v>
+        <v>6.099343</v>
       </c>
       <c r="N5">
-        <v>0.806379720358944</v>
+        <v>18.298029</v>
       </c>
       <c r="O5">
-        <v>0.005853336268296935</v>
+        <v>0.04028947038033828</v>
       </c>
       <c r="P5">
-        <v>0.005853336268296935</v>
+        <v>0.04028947038033828</v>
       </c>
       <c r="Q5">
-        <v>16.35098038216675</v>
+        <v>188.5970997434697</v>
       </c>
       <c r="R5">
-        <v>16.35098038216675</v>
+        <v>1697.373897691227</v>
       </c>
       <c r="S5">
-        <v>0.002058668371734603</v>
+        <v>0.01770513950140764</v>
       </c>
       <c r="T5">
-        <v>0.002058668371734603</v>
+        <v>0.01770513950140763</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,123 +776,123 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>20.2770233047136</v>
+        <v>30.92088766666667</v>
       </c>
       <c r="H6">
-        <v>20.2770233047136</v>
+        <v>92.76266300000002</v>
       </c>
       <c r="I6">
-        <v>0.3517085431918275</v>
+        <v>0.4394483058295039</v>
       </c>
       <c r="J6">
-        <v>0.3517085431918275</v>
+        <v>0.4394483058295039</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.424548857538132</v>
+        <v>0.8278236666666666</v>
       </c>
       <c r="N6">
-        <v>0.424548857538132</v>
+        <v>2.483471</v>
       </c>
       <c r="O6">
-        <v>0.00308170848392097</v>
+        <v>0.005468224544563193</v>
       </c>
       <c r="P6">
-        <v>0.00308170848392097</v>
+        <v>0.005468224544563191</v>
       </c>
       <c r="Q6">
-        <v>8.608587078290237</v>
+        <v>25.59704260480811</v>
       </c>
       <c r="R6">
-        <v>8.608587078290237</v>
+        <v>230.373383443273</v>
       </c>
       <c r="S6">
-        <v>0.00108386320142174</v>
+        <v>0.002403002012003606</v>
       </c>
       <c r="T6">
-        <v>0.00108386320142174</v>
+        <v>0.002403002012003605</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.6420205829656</v>
+        <v>30.92088766666667</v>
       </c>
       <c r="H7">
-        <v>17.6420205829656</v>
+        <v>92.76266300000002</v>
       </c>
       <c r="I7">
-        <v>0.3060039565448783</v>
+        <v>0.4394483058295039</v>
       </c>
       <c r="J7">
-        <v>0.3060039565448783</v>
+        <v>0.4394483058295039</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>127.890361207483</v>
+        <v>0.7952806666666667</v>
       </c>
       <c r="N7">
-        <v>127.890361207483</v>
+        <v>2.385842</v>
       </c>
       <c r="O7">
-        <v>0.9283285166052262</v>
+        <v>0.005253260369800871</v>
       </c>
       <c r="P7">
-        <v>0.9283285166052262</v>
+        <v>0.00525326036980087</v>
       </c>
       <c r="Q7">
-        <v>2256.24438478532</v>
+        <v>24.59078415747178</v>
       </c>
       <c r="R7">
-        <v>2256.24438478532</v>
+        <v>221.3170574172461</v>
       </c>
       <c r="S7">
-        <v>0.284072199054637</v>
+        <v>0.002308536369590266</v>
       </c>
       <c r="T7">
-        <v>0.284072199054637</v>
+        <v>0.002308536369590265</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>17.6420205829656</v>
+        <v>17.82562466666667</v>
       </c>
       <c r="H8">
-        <v>17.6420205829656</v>
+        <v>53.476874</v>
       </c>
       <c r="I8">
-        <v>0.3060039565448783</v>
+        <v>0.2533381526612473</v>
       </c>
       <c r="J8">
-        <v>0.3060039565448783</v>
+        <v>0.2533381526612474</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.50184202892109</v>
+        <v>139.3946303333333</v>
       </c>
       <c r="N8">
-        <v>3.50184202892109</v>
+        <v>418.183891</v>
       </c>
       <c r="O8">
-        <v>0.02541911513425251</v>
+        <v>0.9207771771472824</v>
       </c>
       <c r="P8">
-        <v>0.02541911513425251</v>
+        <v>0.9207771771472822</v>
       </c>
       <c r="Q8">
-        <v>61.77956915251988</v>
+        <v>2484.796360870748</v>
       </c>
       <c r="R8">
-        <v>61.77956915251988</v>
+        <v>22363.16724783673</v>
       </c>
       <c r="S8">
-        <v>0.007778349802951065</v>
+        <v>0.2332679890711306</v>
       </c>
       <c r="T8">
-        <v>0.007778349802951065</v>
+        <v>0.2332679890711306</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>17.6420205829656</v>
+        <v>17.82562466666667</v>
       </c>
       <c r="H9">
-        <v>17.6420205829656</v>
+        <v>53.476874</v>
       </c>
       <c r="I9">
-        <v>0.3060039565448783</v>
+        <v>0.2533381526612473</v>
       </c>
       <c r="J9">
-        <v>0.3060039565448783</v>
+        <v>0.2533381526612474</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>5.14098823574429</v>
+        <v>0.050239</v>
       </c>
       <c r="N9">
-        <v>5.14098823574429</v>
+        <v>0.150717</v>
       </c>
       <c r="O9">
-        <v>0.03731732350830338</v>
+        <v>0.0003318558576616883</v>
       </c>
       <c r="P9">
-        <v>0.03731732350830338</v>
+        <v>0.0003318558576616882</v>
       </c>
       <c r="Q9">
-        <v>90.69742027178476</v>
+        <v>0.8955415576286666</v>
       </c>
       <c r="R9">
-        <v>90.69742027178476</v>
+        <v>8.059874018658</v>
       </c>
       <c r="S9">
-        <v>0.01141924864120603</v>
+        <v>8.407174992982595E-05</v>
       </c>
       <c r="T9">
-        <v>0.01141924864120603</v>
+        <v>8.407174992982595E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>17.6420205829656</v>
+        <v>17.82562466666667</v>
       </c>
       <c r="H10">
-        <v>17.6420205829656</v>
+        <v>53.476874</v>
       </c>
       <c r="I10">
-        <v>0.3060039565448783</v>
+        <v>0.2533381526612473</v>
       </c>
       <c r="J10">
-        <v>0.3060039565448783</v>
+        <v>0.2533381526612474</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.806379720358944</v>
+        <v>4.220699666666667</v>
       </c>
       <c r="N10">
-        <v>0.806379720358944</v>
+        <v>12.662099</v>
       </c>
       <c r="O10">
-        <v>0.005853336268296935</v>
+        <v>0.02788001170035368</v>
       </c>
       <c r="P10">
-        <v>0.005853336268296935</v>
+        <v>0.02788001170035368</v>
       </c>
       <c r="Q10">
-        <v>14.22616762425853</v>
+        <v>75.23660808872511</v>
       </c>
       <c r="R10">
-        <v>14.22616762425853</v>
+        <v>677.129472798526</v>
       </c>
       <c r="S10">
-        <v>0.001791144057086496</v>
+        <v>0.007063070660341562</v>
       </c>
       <c r="T10">
-        <v>0.001791144057086496</v>
+        <v>0.007063070660341563</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,185 +1086,185 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>17.6420205829656</v>
+        <v>17.82562466666667</v>
       </c>
       <c r="H11">
-        <v>17.6420205829656</v>
+        <v>53.476874</v>
       </c>
       <c r="I11">
-        <v>0.3060039565448783</v>
+        <v>0.2533381526612473</v>
       </c>
       <c r="J11">
-        <v>0.3060039565448783</v>
+        <v>0.2533381526612474</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.424548857538132</v>
+        <v>6.099343</v>
       </c>
       <c r="N11">
-        <v>0.424548857538132</v>
+        <v>18.298029</v>
       </c>
       <c r="O11">
-        <v>0.00308170848392097</v>
+        <v>0.04028947038033828</v>
       </c>
       <c r="P11">
-        <v>0.00308170848392097</v>
+        <v>0.04028947038033828</v>
       </c>
       <c r="Q11">
-        <v>7.489899683162255</v>
+        <v>108.7245990312607</v>
       </c>
       <c r="R11">
-        <v>7.489899683162255</v>
+        <v>978.521391281346</v>
       </c>
       <c r="S11">
-        <v>0.0009430149889977352</v>
+        <v>0.01020685999785494</v>
       </c>
       <c r="T11">
-        <v>0.0009430149889977352</v>
+        <v>0.01020685999785494</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.629152343248192</v>
+        <v>17.82562466666667</v>
       </c>
       <c r="H12">
-        <v>0.629152343248192</v>
+        <v>53.476874</v>
       </c>
       <c r="I12">
-        <v>0.01091275828627705</v>
+        <v>0.2533381526612473</v>
       </c>
       <c r="J12">
-        <v>0.01091275828627705</v>
+        <v>0.2533381526612474</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>127.890361207483</v>
+        <v>0.8278236666666666</v>
       </c>
       <c r="N12">
-        <v>127.890361207483</v>
+        <v>2.483471</v>
       </c>
       <c r="O12">
-        <v>0.9283285166052262</v>
+        <v>0.005468224544563193</v>
       </c>
       <c r="P12">
-        <v>0.9283285166052262</v>
+        <v>0.005468224544563191</v>
       </c>
       <c r="Q12">
-        <v>80.4625204325456</v>
+        <v>14.75647397218378</v>
       </c>
       <c r="R12">
-        <v>80.4625204325456</v>
+        <v>132.808265749654</v>
       </c>
       <c r="S12">
-        <v>0.01013062471197096</v>
+        <v>0.00138530990445653</v>
       </c>
       <c r="T12">
-        <v>0.01013062471197096</v>
+        <v>0.00138530990445653</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.629152343248192</v>
+        <v>17.82562466666667</v>
       </c>
       <c r="H13">
-        <v>0.629152343248192</v>
+        <v>53.476874</v>
       </c>
       <c r="I13">
-        <v>0.01091275828627705</v>
+        <v>0.2533381526612473</v>
       </c>
       <c r="J13">
-        <v>0.01091275828627705</v>
+        <v>0.2533381526612474</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.50184202892109</v>
+        <v>0.7952806666666667</v>
       </c>
       <c r="N13">
-        <v>3.50184202892109</v>
+        <v>2.385842</v>
       </c>
       <c r="O13">
-        <v>0.02541911513425251</v>
+        <v>0.005253260369800871</v>
       </c>
       <c r="P13">
-        <v>0.02541911513425251</v>
+        <v>0.00525326036980087</v>
       </c>
       <c r="Q13">
-        <v>2.203192118180707</v>
+        <v>14.17637466865644</v>
       </c>
       <c r="R13">
-        <v>2.203192118180707</v>
+        <v>127.587372017908</v>
       </c>
       <c r="S13">
-        <v>0.0002773926593111445</v>
+        <v>0.001330851277533894</v>
       </c>
       <c r="T13">
-        <v>0.0002773926593111445</v>
+        <v>0.001330851277533894</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.629152343248192</v>
+        <v>0.3620696666666667</v>
       </c>
       <c r="H14">
-        <v>0.629152343248192</v>
+        <v>1.086209</v>
       </c>
       <c r="I14">
-        <v>0.01091275828627705</v>
+        <v>0.005145741717513645</v>
       </c>
       <c r="J14">
-        <v>0.01091275828627705</v>
+        <v>0.005145741717513645</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.14098823574429</v>
+        <v>139.3946303333333</v>
       </c>
       <c r="N14">
-        <v>5.14098823574429</v>
+        <v>418.183891</v>
       </c>
       <c r="O14">
-        <v>0.03731732350830338</v>
+        <v>0.9207771771472824</v>
       </c>
       <c r="P14">
-        <v>0.03731732350830338</v>
+        <v>0.9207771771472822</v>
       </c>
       <c r="Q14">
-        <v>3.234464795129909</v>
+        <v>50.47056733991322</v>
       </c>
       <c r="R14">
-        <v>3.234464795129909</v>
+        <v>454.2351060592189</v>
       </c>
       <c r="S14">
-        <v>0.0004072349313369191</v>
+        <v>0.004738081532981222</v>
       </c>
       <c r="T14">
-        <v>0.0004072349313369191</v>
+        <v>0.004738081532981222</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.629152343248192</v>
+        <v>0.3620696666666667</v>
       </c>
       <c r="H15">
-        <v>0.629152343248192</v>
+        <v>1.086209</v>
       </c>
       <c r="I15">
-        <v>0.01091275828627705</v>
+        <v>0.005145741717513645</v>
       </c>
       <c r="J15">
-        <v>0.01091275828627705</v>
+        <v>0.005145741717513645</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>0.806379720358944</v>
+        <v>0.050239</v>
       </c>
       <c r="N15">
-        <v>0.806379720358944</v>
+        <v>0.150717</v>
       </c>
       <c r="O15">
-        <v>0.005853336268296935</v>
+        <v>0.0003318558576616883</v>
       </c>
       <c r="P15">
-        <v>0.005853336268296935</v>
+        <v>0.0003318558576616882</v>
       </c>
       <c r="Q15">
-        <v>0.5073356906116514</v>
+        <v>0.01819001798366667</v>
       </c>
       <c r="R15">
-        <v>0.5073356906116514</v>
+        <v>0.163710161853</v>
       </c>
       <c r="S15">
-        <v>6.387604386422337E-05</v>
+        <v>1.70764453097102E-06</v>
       </c>
       <c r="T15">
-        <v>6.387604386422337E-05</v>
+        <v>1.707644530971019E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,247 +1396,247 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.629152343248192</v>
+        <v>0.3620696666666667</v>
       </c>
       <c r="H16">
-        <v>0.629152343248192</v>
+        <v>1.086209</v>
       </c>
       <c r="I16">
-        <v>0.01091275828627705</v>
+        <v>0.005145741717513645</v>
       </c>
       <c r="J16">
-        <v>0.01091275828627705</v>
+        <v>0.005145741717513645</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.424548857538132</v>
+        <v>4.220699666666667</v>
       </c>
       <c r="N16">
-        <v>0.424548857538132</v>
+        <v>12.662099</v>
       </c>
       <c r="O16">
-        <v>0.00308170848392097</v>
+        <v>0.02788001170035368</v>
       </c>
       <c r="P16">
-        <v>0.00308170848392097</v>
+        <v>0.02788001170035368</v>
       </c>
       <c r="Q16">
-        <v>0.2671059085434586</v>
+        <v>1.528187321410111</v>
       </c>
       <c r="R16">
-        <v>0.2671059085434586</v>
+        <v>13.753685892691</v>
       </c>
       <c r="S16">
-        <v>3.362993979379885E-05</v>
+        <v>0.0001434633392912785</v>
       </c>
       <c r="T16">
-        <v>3.362993979379885E-05</v>
+        <v>0.0001434633392912785</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>19.1047203593136</v>
+        <v>0.3620696666666667</v>
       </c>
       <c r="H17">
-        <v>19.1047203593136</v>
+        <v>1.086209</v>
       </c>
       <c r="I17">
-        <v>0.3313747419770172</v>
+        <v>0.005145741717513645</v>
       </c>
       <c r="J17">
-        <v>0.3313747419770172</v>
+        <v>0.005145741717513645</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>127.890361207483</v>
+        <v>6.099343</v>
       </c>
       <c r="N17">
-        <v>127.890361207483</v>
+        <v>18.298029</v>
       </c>
       <c r="O17">
-        <v>0.9283285166052262</v>
+        <v>0.04028947038033828</v>
       </c>
       <c r="P17">
-        <v>0.9283285166052262</v>
+        <v>0.04028947038033828</v>
       </c>
       <c r="Q17">
-        <v>2443.30958752057</v>
+        <v>2.208387086895667</v>
       </c>
       <c r="R17">
-        <v>2443.30958752057</v>
+        <v>19.875483782061</v>
       </c>
       <c r="S17">
-        <v>0.3076246226599639</v>
+        <v>0.0002073192085126371</v>
       </c>
       <c r="T17">
-        <v>0.3076246226599639</v>
+        <v>0.000207319208512637</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>26</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>19.1047203593136</v>
+        <v>0.3620696666666667</v>
       </c>
       <c r="H18">
-        <v>19.1047203593136</v>
+        <v>1.086209</v>
       </c>
       <c r="I18">
-        <v>0.3313747419770172</v>
+        <v>0.005145741717513645</v>
       </c>
       <c r="J18">
-        <v>0.3313747419770172</v>
+        <v>0.005145741717513645</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.50184202892109</v>
+        <v>0.8278236666666666</v>
       </c>
       <c r="N18">
-        <v>3.50184202892109</v>
+        <v>2.483471</v>
       </c>
       <c r="O18">
-        <v>0.02541911513425251</v>
+        <v>0.005468224544563193</v>
       </c>
       <c r="P18">
-        <v>0.02541911513425251</v>
+        <v>0.005468224544563191</v>
       </c>
       <c r="Q18">
-        <v>66.90171270502879</v>
+        <v>0.2997298390487778</v>
       </c>
       <c r="R18">
-        <v>66.90171270502879</v>
+        <v>2.697568551439</v>
       </c>
       <c r="S18">
-        <v>0.008423252718897017</v>
+        <v>2.813807115969088E-05</v>
       </c>
       <c r="T18">
-        <v>0.008423252718897017</v>
+        <v>2.813807115969087E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>19.1047203593136</v>
+        <v>0.3620696666666667</v>
       </c>
       <c r="H19">
-        <v>19.1047203593136</v>
+        <v>1.086209</v>
       </c>
       <c r="I19">
-        <v>0.3313747419770172</v>
+        <v>0.005145741717513645</v>
       </c>
       <c r="J19">
-        <v>0.3313747419770172</v>
+        <v>0.005145741717513645</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.14098823574429</v>
+        <v>0.7952806666666667</v>
       </c>
       <c r="N19">
-        <v>5.14098823574429</v>
+        <v>2.385842</v>
       </c>
       <c r="O19">
-        <v>0.03731732350830338</v>
+        <v>0.005253260369800871</v>
       </c>
       <c r="P19">
-        <v>0.03731732350830338</v>
+        <v>0.00525326036980087</v>
       </c>
       <c r="Q19">
-        <v>98.21714261441564</v>
+        <v>0.2879470058864445</v>
       </c>
       <c r="R19">
-        <v>98.21714261441564</v>
+        <v>2.591523052978</v>
       </c>
       <c r="S19">
-        <v>0.01236601844883691</v>
+        <v>2.70319210378455E-05</v>
       </c>
       <c r="T19">
-        <v>0.01236601844883691</v>
+        <v>2.70319210378455E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>19.1047203593136</v>
+        <v>0.7909673333333332</v>
       </c>
       <c r="H20">
-        <v>19.1047203593136</v>
+        <v>2.372902</v>
       </c>
       <c r="I20">
-        <v>0.3313747419770172</v>
+        <v>0.01124124437651646</v>
       </c>
       <c r="J20">
-        <v>0.3313747419770172</v>
+        <v>0.01124124437651646</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.806379720358944</v>
+        <v>139.3946303333333</v>
       </c>
       <c r="N20">
-        <v>0.806379720358944</v>
+        <v>418.183891</v>
       </c>
       <c r="O20">
-        <v>0.005853336268296935</v>
+        <v>0.9207771771472824</v>
       </c>
       <c r="P20">
-        <v>0.005853336268296935</v>
+        <v>0.9207771771472822</v>
       </c>
       <c r="Q20">
-        <v>15.40565906087912</v>
+        <v>110.2565990357424</v>
       </c>
       <c r="R20">
-        <v>15.40565906087912</v>
+        <v>992.3093913216818</v>
       </c>
       <c r="S20">
-        <v>0.001939647795611613</v>
+        <v>0.01035068126463158</v>
       </c>
       <c r="T20">
-        <v>0.001939647795611613</v>
+        <v>0.01035068126463158</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,1053 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.7909673333333332</v>
+      </c>
+      <c r="H21">
+        <v>2.372902</v>
+      </c>
+      <c r="I21">
+        <v>0.01124124437651646</v>
+      </c>
+      <c r="J21">
+        <v>0.01124124437651646</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.050239</v>
+      </c>
+      <c r="N21">
+        <v>0.150717</v>
+      </c>
+      <c r="O21">
+        <v>0.0003318558576616883</v>
+      </c>
+      <c r="P21">
+        <v>0.0003318558576616882</v>
+      </c>
+      <c r="Q21">
+        <v>0.03973740785933333</v>
+      </c>
+      <c r="R21">
+        <v>0.357636670734</v>
+      </c>
+      <c r="S21">
+        <v>3.730472793753499E-06</v>
+      </c>
+      <c r="T21">
+        <v>3.730472793753499E-06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.7909673333333332</v>
+      </c>
+      <c r="H22">
+        <v>2.372902</v>
+      </c>
+      <c r="I22">
+        <v>0.01124124437651646</v>
+      </c>
+      <c r="J22">
+        <v>0.01124124437651646</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>4.220699666666667</v>
+      </c>
+      <c r="N22">
+        <v>12.662099</v>
+      </c>
+      <c r="O22">
+        <v>0.02788001170035368</v>
+      </c>
+      <c r="P22">
+        <v>0.02788001170035368</v>
+      </c>
+      <c r="Q22">
+        <v>3.338435560144222</v>
+      </c>
+      <c r="R22">
+        <v>30.045920041298</v>
+      </c>
+      <c r="S22">
+        <v>0.0003134060247438138</v>
+      </c>
+      <c r="T22">
+        <v>0.0003134060247438138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.7909673333333332</v>
+      </c>
+      <c r="H23">
+        <v>2.372902</v>
+      </c>
+      <c r="I23">
+        <v>0.01124124437651646</v>
+      </c>
+      <c r="J23">
+        <v>0.01124124437651646</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>6.099343</v>
+      </c>
+      <c r="N23">
+        <v>18.298029</v>
+      </c>
+      <c r="O23">
+        <v>0.04028947038033828</v>
+      </c>
+      <c r="P23">
+        <v>0.04028947038033828</v>
+      </c>
+      <c r="Q23">
+        <v>4.824381067795333</v>
+      </c>
+      <c r="R23">
+        <v>43.419429610158</v>
+      </c>
+      <c r="S23">
+        <v>0.000452903782345804</v>
+      </c>
+      <c r="T23">
+        <v>0.000452903782345804</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.7909673333333332</v>
+      </c>
+      <c r="H24">
+        <v>2.372902</v>
+      </c>
+      <c r="I24">
+        <v>0.01124124437651646</v>
+      </c>
+      <c r="J24">
+        <v>0.01124124437651646</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.8278236666666666</v>
+      </c>
+      <c r="N24">
+        <v>2.483471</v>
+      </c>
+      <c r="O24">
+        <v>0.005468224544563193</v>
+      </c>
+      <c r="P24">
+        <v>0.005468224544563191</v>
+      </c>
+      <c r="Q24">
+        <v>0.6547814780935555</v>
+      </c>
+      <c r="R24">
+        <v>5.893033302841999</v>
+      </c>
+      <c r="S24">
+        <v>6.146964841110025E-05</v>
+      </c>
+      <c r="T24">
+        <v>6.146964841110025E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.7909673333333332</v>
+      </c>
+      <c r="H25">
+        <v>2.372902</v>
+      </c>
+      <c r="I25">
+        <v>0.01124124437651646</v>
+      </c>
+      <c r="J25">
+        <v>0.01124124437651646</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.7952806666666667</v>
+      </c>
+      <c r="N25">
+        <v>2.385842</v>
+      </c>
+      <c r="O25">
+        <v>0.005253260369800871</v>
+      </c>
+      <c r="P25">
+        <v>0.00525326036980087</v>
+      </c>
+      <c r="Q25">
+        <v>0.6290410281648888</v>
+      </c>
+      <c r="R25">
+        <v>5.661369253484001</v>
+      </c>
+      <c r="S25">
+        <v>5.905318359040079E-05</v>
+      </c>
+      <c r="T25">
+        <v>5.905318359040079E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.1402096666666666</v>
+      </c>
+      <c r="H26">
+        <v>0.420629</v>
+      </c>
+      <c r="I26">
+        <v>0.001992662731478055</v>
+      </c>
+      <c r="J26">
+        <v>0.001992662731478056</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>139.3946303333333</v>
+      </c>
+      <c r="N26">
+        <v>418.183891</v>
+      </c>
+      <c r="O26">
+        <v>0.9207771771472824</v>
+      </c>
+      <c r="P26">
+        <v>0.9207771771472822</v>
+      </c>
+      <c r="Q26">
+        <v>19.54447465415988</v>
+      </c>
+      <c r="R26">
+        <v>175.900271887439</v>
+      </c>
+      <c r="S26">
+        <v>0.001834798364896957</v>
+      </c>
+      <c r="T26">
+        <v>0.001834798364896957</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G27">
+        <v>0.1402096666666666</v>
+      </c>
+      <c r="H27">
+        <v>0.420629</v>
+      </c>
+      <c r="I27">
+        <v>0.001992662731478055</v>
+      </c>
+      <c r="J27">
+        <v>0.001992662731478056</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M27">
+        <v>0.050239</v>
+      </c>
+      <c r="N27">
+        <v>0.150717</v>
+      </c>
+      <c r="O27">
+        <v>0.0003318558576616883</v>
+      </c>
+      <c r="P27">
+        <v>0.0003318558576616882</v>
+      </c>
+      <c r="Q27">
+        <v>0.007043993443666666</v>
+      </c>
+      <c r="R27">
+        <v>0.06339594099299999</v>
+      </c>
+      <c r="S27">
+        <v>6.612767997851326E-07</v>
+      </c>
+      <c r="T27">
+        <v>6.612767997851326E-07</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G28">
+        <v>0.1402096666666666</v>
+      </c>
+      <c r="H28">
+        <v>0.420629</v>
+      </c>
+      <c r="I28">
+        <v>0.001992662731478055</v>
+      </c>
+      <c r="J28">
+        <v>0.001992662731478056</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>4.220699666666667</v>
+      </c>
+      <c r="N28">
+        <v>12.662099</v>
+      </c>
+      <c r="O28">
+        <v>0.02788001170035368</v>
+      </c>
+      <c r="P28">
+        <v>0.02788001170035368</v>
+      </c>
+      <c r="Q28">
+        <v>0.5917828933634444</v>
+      </c>
+      <c r="R28">
+        <v>5.326046040271</v>
+      </c>
+      <c r="S28">
+        <v>5.555546026846691E-05</v>
+      </c>
+      <c r="T28">
+        <v>5.555546026846691E-05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>19.1047203593136</v>
-      </c>
-      <c r="H21">
-        <v>19.1047203593136</v>
-      </c>
-      <c r="I21">
-        <v>0.3313747419770172</v>
-      </c>
-      <c r="J21">
-        <v>0.3313747419770172</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>0.424548857538132</v>
-      </c>
-      <c r="N21">
-        <v>0.424548857538132</v>
-      </c>
-      <c r="O21">
-        <v>0.00308170848392097</v>
-      </c>
-      <c r="P21">
-        <v>0.00308170848392097</v>
-      </c>
-      <c r="Q21">
-        <v>8.11088720213208</v>
-      </c>
-      <c r="R21">
-        <v>8.11088720213208</v>
-      </c>
-      <c r="S21">
-        <v>0.001021200353707696</v>
-      </c>
-      <c r="T21">
-        <v>0.001021200353707696</v>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G29">
+        <v>0.1402096666666666</v>
+      </c>
+      <c r="H29">
+        <v>0.420629</v>
+      </c>
+      <c r="I29">
+        <v>0.001992662731478055</v>
+      </c>
+      <c r="J29">
+        <v>0.001992662731478056</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>6.099343</v>
+      </c>
+      <c r="N29">
+        <v>18.298029</v>
+      </c>
+      <c r="O29">
+        <v>0.04028947038033828</v>
+      </c>
+      <c r="P29">
+        <v>0.04028947038033828</v>
+      </c>
+      <c r="Q29">
+        <v>0.8551868489156665</v>
+      </c>
+      <c r="R29">
+        <v>7.696681640241</v>
+      </c>
+      <c r="S29">
+        <v>8.028332609788908E-05</v>
+      </c>
+      <c r="T29">
+        <v>8.028332609788909E-05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G30">
+        <v>0.1402096666666666</v>
+      </c>
+      <c r="H30">
+        <v>0.420629</v>
+      </c>
+      <c r="I30">
+        <v>0.001992662731478055</v>
+      </c>
+      <c r="J30">
+        <v>0.001992662731478056</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.8278236666666666</v>
+      </c>
+      <c r="N30">
+        <v>2.483471</v>
+      </c>
+      <c r="O30">
+        <v>0.005468224544563193</v>
+      </c>
+      <c r="P30">
+        <v>0.005468224544563191</v>
+      </c>
+      <c r="Q30">
+        <v>0.1160688803621111</v>
+      </c>
+      <c r="R30">
+        <v>1.044619923259</v>
+      </c>
+      <c r="S30">
+        <v>1.089632725730464E-05</v>
+      </c>
+      <c r="T30">
+        <v>1.089632725730464E-05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G31">
+        <v>0.1402096666666666</v>
+      </c>
+      <c r="H31">
+        <v>0.420629</v>
+      </c>
+      <c r="I31">
+        <v>0.001992662731478055</v>
+      </c>
+      <c r="J31">
+        <v>0.001992662731478056</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.7952806666666667</v>
+      </c>
+      <c r="N31">
+        <v>2.385842</v>
+      </c>
+      <c r="O31">
+        <v>0.005253260369800871</v>
+      </c>
+      <c r="P31">
+        <v>0.00525326036980087</v>
+      </c>
+      <c r="Q31">
+        <v>0.1115060371797778</v>
+      </c>
+      <c r="R31">
+        <v>1.003554334618</v>
+      </c>
+      <c r="S31">
+        <v>1.046797615765282E-05</v>
+      </c>
+      <c r="T31">
+        <v>1.046797615765282E-05</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>20.32321033333334</v>
+      </c>
+      <c r="H32">
+        <v>60.96963100000001</v>
+      </c>
+      <c r="I32">
+        <v>0.2888338926837407</v>
+      </c>
+      <c r="J32">
+        <v>0.2888338926837407</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>139.3946303333333</v>
+      </c>
+      <c r="N32">
+        <v>418.183891</v>
+      </c>
+      <c r="O32">
+        <v>0.9207771771472824</v>
+      </c>
+      <c r="P32">
+        <v>0.9207771771472822</v>
+      </c>
+      <c r="Q32">
+        <v>2832.94639160158</v>
+      </c>
+      <c r="R32">
+        <v>25496.51752441422</v>
+      </c>
+      <c r="S32">
+        <v>0.2659516563697958</v>
+      </c>
+      <c r="T32">
+        <v>0.2659516563697958</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>20.32321033333334</v>
+      </c>
+      <c r="H33">
+        <v>60.96963100000001</v>
+      </c>
+      <c r="I33">
+        <v>0.2888338926837407</v>
+      </c>
+      <c r="J33">
+        <v>0.2888338926837407</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M33">
+        <v>0.050239</v>
+      </c>
+      <c r="N33">
+        <v>0.150717</v>
+      </c>
+      <c r="O33">
+        <v>0.0003318558576616883</v>
+      </c>
+      <c r="P33">
+        <v>0.0003318558576616882</v>
+      </c>
+      <c r="Q33">
+        <v>1.021017763936333</v>
+      </c>
+      <c r="R33">
+        <v>9.189159875427</v>
+      </c>
+      <c r="S33">
+        <v>9.585121917832679E-05</v>
+      </c>
+      <c r="T33">
+        <v>9.585121917832677E-05</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>20.32321033333334</v>
+      </c>
+      <c r="H34">
+        <v>60.96963100000001</v>
+      </c>
+      <c r="I34">
+        <v>0.2888338926837407</v>
+      </c>
+      <c r="J34">
+        <v>0.2888338926837407</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>4.220699666666667</v>
+      </c>
+      <c r="N34">
+        <v>12.662099</v>
+      </c>
+      <c r="O34">
+        <v>0.02788001170035368</v>
+      </c>
+      <c r="P34">
+        <v>0.02788001170035368</v>
+      </c>
+      <c r="Q34">
+        <v>85.77816707949657</v>
+      </c>
+      <c r="R34">
+        <v>772.003503715469</v>
+      </c>
+      <c r="S34">
+        <v>0.008052692307481389</v>
+      </c>
+      <c r="T34">
+        <v>0.008052692307481388</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>20.32321033333334</v>
+      </c>
+      <c r="H35">
+        <v>60.96963100000001</v>
+      </c>
+      <c r="I35">
+        <v>0.2888338926837407</v>
+      </c>
+      <c r="J35">
+        <v>0.2888338926837407</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>6.099343</v>
+      </c>
+      <c r="N35">
+        <v>18.298029</v>
+      </c>
+      <c r="O35">
+        <v>0.04028947038033828</v>
+      </c>
+      <c r="P35">
+        <v>0.04028947038033828</v>
+      </c>
+      <c r="Q35">
+        <v>123.9582306841444</v>
+      </c>
+      <c r="R35">
+        <v>1115.624076157299</v>
+      </c>
+      <c r="S35">
+        <v>0.01163696456411938</v>
+      </c>
+      <c r="T35">
+        <v>0.01163696456411937</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>20.32321033333334</v>
+      </c>
+      <c r="H36">
+        <v>60.96963100000001</v>
+      </c>
+      <c r="I36">
+        <v>0.2888338926837407</v>
+      </c>
+      <c r="J36">
+        <v>0.2888338926837407</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.8278236666666666</v>
+      </c>
+      <c r="N36">
+        <v>2.483471</v>
+      </c>
+      <c r="O36">
+        <v>0.005468224544563193</v>
+      </c>
+      <c r="P36">
+        <v>0.005468224544563191</v>
+      </c>
+      <c r="Q36">
+        <v>16.82403449657789</v>
+      </c>
+      <c r="R36">
+        <v>151.416310469201</v>
+      </c>
+      <c r="S36">
+        <v>0.001579408581274962</v>
+      </c>
+      <c r="T36">
+        <v>0.001579408581274961</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>20.32321033333334</v>
+      </c>
+      <c r="H37">
+        <v>60.96963100000001</v>
+      </c>
+      <c r="I37">
+        <v>0.2888338926837407</v>
+      </c>
+      <c r="J37">
+        <v>0.2888338926837407</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>0.7952806666666667</v>
+      </c>
+      <c r="N37">
+        <v>2.385842</v>
+      </c>
+      <c r="O37">
+        <v>0.005253260369800871</v>
+      </c>
+      <c r="P37">
+        <v>0.00525326036980087</v>
+      </c>
+      <c r="Q37">
+        <v>16.16265626270022</v>
+      </c>
+      <c r="R37">
+        <v>145.463906364302</v>
+      </c>
+      <c r="S37">
+        <v>0.001517319641890812</v>
+      </c>
+      <c r="T37">
+        <v>0.001517319641890812</v>
       </c>
     </row>
   </sheetData>
